--- a/medicine/Mort/Cimetière_évangélique_d'Augsbourg_de_Varsovie/Cimetière_évangélique_d'Augsbourg_de_Varsovie.xlsx
+++ b/medicine/Mort/Cimetière_évangélique_d'Augsbourg_de_Varsovie/Cimetière_évangélique_d'Augsbourg_de_Varsovie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_%C3%A9vang%C3%A9lique_d%27Augsbourg_de_Varsovie</t>
+          <t>Cimetière_évangélique_d'Augsbourg_de_Varsovie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière évangélique d'Augsbourg ou Cimetière évangélique de la confession d'Augsbourg (cmentarz ewangelicko-augsburski w Warszawie en polonais) est un cimetière protestant luthérien de Varsovie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_%C3%A9vang%C3%A9lique_d%27Augsbourg_de_Varsovie</t>
+          <t>Cimetière_évangélique_d'Augsbourg_de_Varsovie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière évangélique de la Confession d'Augsbourg a été consacré le 2 mai 1792 et conçu par l'architecte Szymon Bogumił Zug, qui y repose. Plus de 100.000 personnes ont été enterrées au cimetière depuis son ouverture en 1792. Pendant l'insurrection de Kościuszko de 1794 et pendant la Seconde Guerre mondiale, d'intenses combats ont eu lieu au cimetière. À noter, la chapelle néoclassique de la famille Halpert (1835) qui dessert la communauté luthérienne, fortement rénovée en 1975. Il y a malheureusement de nombreuses tombes encore détruites ou en mauvais état et, comme dans le cimetière catholique romain Powązki, un comité pour la restauration du cimetière a été mis en place et recueille de l'argent le jour de la Toussaint pour que les trésors du cimetière retrouvent leur gloire d'antan.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_%C3%A9vang%C3%A9lique_d%27Augsbourg_de_Varsovie</t>
+          <t>Cimetière_évangélique_d'Augsbourg_de_Varsovie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Quelques personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Stanisław Brun (1830–1912), entrepreneur
 Józef Banek (1899–1989), Justes parmi les nations
